--- a/config_5.11/shoping_config_xiaomi.xlsx
+++ b/config_5.11/shoping_config_xiaomi.xlsx
@@ -6682,8 +6682,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6717,9 +6717,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6732,6 +6739,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -6739,8 +6754,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6748,6 +6772,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6761,22 +6814,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6791,18 +6839,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6811,53 +6858,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6947,7 +6947,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6959,7 +6977,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6971,55 +7061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7031,37 +7073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7073,31 +7091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7139,24 +7139,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7185,11 +7181,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7211,26 +7228,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7242,10 +7242,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7254,133 +7254,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10133,11 +10133,11 @@
   <dimension ref="A1:AIF627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W596" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X602" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D625" sqref="D625"/>
+      <selection pane="bottomRight" activeCell="AB624" sqref="AB624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -49954,7 +49954,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA619" s="29">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="AB619"/>
       <c r="AC619"/>
@@ -50916,7 +50916,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA620" s="29">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="AB620"/>
       <c r="AC620"/>
@@ -51878,7 +51878,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA621" s="29">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="AB621"/>
       <c r="AC621"/>
@@ -52840,7 +52840,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA622" s="29">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="AB622"/>
       <c r="AC622"/>
@@ -53802,7 +53802,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA623" s="29">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="AB623"/>
       <c r="AC623"/>
@@ -54764,7 +54764,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA624" s="29">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="AB624"/>
       <c r="AC624"/>
@@ -55726,7 +55726,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA625" s="29">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AB625"/>
       <c r="AC625"/>
@@ -56688,7 +56688,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA626" s="29">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AB626"/>
       <c r="AC626"/>
@@ -57650,7 +57650,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA627" s="29">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AB627"/>
       <c r="AC627"/>
@@ -58564,7 +58564,7 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
